--- a/NYT.xlsx
+++ b/NYT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA172B4F-CB35-45D6-8FE8-469942A20E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC48FE0-D8B5-41CC-B813-75003BA26E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{F0F54F86-B9EF-4E89-80C7-6F9BAE07501F}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{F0F54F86-B9EF-4E89-80C7-6F9BAE07501F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,14 +224,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -259,6 +257,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,20 +291,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -632,32 +645,33 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>52.09</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="3">
@@ -668,11 +682,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="3">
@@ -680,11 +694,11 @@
         <v>8540.3870921399994</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
@@ -695,8 +709,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3">
@@ -706,8 +720,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="3">
@@ -728,21 +742,22 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -768,8 +783,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="3"/>
@@ -785,8 +800,8 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="3"/>
@@ -802,8 +817,8 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3"/>
@@ -831,8 +846,8 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="3"/>
@@ -860,8 +875,8 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="3"/>
@@ -889,7 +904,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -938,8 +953,8 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="3"/>
@@ -967,8 +982,8 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="3"/>
@@ -1010,8 +1025,8 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="3"/>
@@ -1039,8 +1054,8 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="3"/>
@@ -1068,8 +1083,8 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3"/>
@@ -1097,8 +1112,8 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3"/>
@@ -1126,8 +1141,8 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="3"/>
@@ -1155,8 +1170,8 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="3"/>
@@ -1185,8 +1200,8 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="3">
@@ -1234,8 +1249,8 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3"/>
@@ -1263,8 +1278,8 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C19" s="3"/>
@@ -1292,8 +1307,8 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="3">
@@ -1341,8 +1356,8 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3"/>
@@ -1370,8 +1385,8 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="3">
@@ -1419,7 +1434,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1441,39 +1456,39 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="2" t="e">
+      <c r="C24" s="7" t="e">
         <f t="shared" ref="C24:D24" si="10">+C22/C25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D24" s="2" t="e">
+      <c r="D24" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="7">
         <f>+E22/E25</f>
         <v>0.32579237761897856</v>
       </c>
-      <c r="F24" s="2" t="e">
+      <c r="F24" s="7" t="e">
         <f t="shared" ref="F24:J24" si="11">+F22/F25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="2" t="e">
+      <c r="G24" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="2" t="e">
+      <c r="H24" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="7">
         <f t="shared" si="11"/>
         <v>0.3901191468139325</v>
       </c>
-      <c r="J24" s="2" t="e">
+      <c r="J24" s="7" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
@@ -1490,8 +1505,8 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
@@ -1519,7 +1534,7 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1541,27 +1556,27 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="7" t="e">
+      <c r="G27" s="8" t="e">
         <f t="shared" ref="G27:H30" si="12">+G5/C5-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="7" t="e">
+      <c r="H27" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="8">
         <f>+I5/E5-1</f>
         <v>8.3019372779679745E-2</v>
       </c>
-      <c r="J27" s="7" t="e">
+      <c r="J27" s="8" t="e">
         <f t="shared" ref="J27:J30" si="13">+J5/F5-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -1578,27 +1593,27 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="7" t="e">
+      <c r="G28" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="7" t="e">
+      <c r="H28" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="8">
         <f t="shared" ref="I28:I30" si="14">+I6/E6-1</f>
         <v>1.0733223467932707E-2</v>
       </c>
-      <c r="J28" s="7" t="e">
+      <c r="J28" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -1615,27 +1630,27 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="7" t="e">
+      <c r="G29" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="7" t="e">
+      <c r="H29" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="8">
         <f t="shared" si="14"/>
         <v>9.2985396217380778E-2</v>
       </c>
-      <c r="J29" s="7" t="e">
+      <c r="J29" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -1652,27 +1667,27 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f t="shared" si="14"/>
         <v>6.9914514201672828E-2</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
@@ -1689,39 +1704,39 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="7" t="e">
+      <c r="C31" s="8" t="e">
         <f t="shared" ref="C31:H31" si="15">+C10/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="7" t="e">
+      <c r="D31" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <f t="shared" si="15"/>
         <v>0.48000735361706043</v>
       </c>
-      <c r="F31" s="7" t="e">
+      <c r="F31" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f>+I10/I8</f>
         <v>0.48164572978140452</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f t="shared" ref="J31" si="16">+J10/J8</f>
         <v>#DIV/0!</v>
       </c>
@@ -1738,39 +1753,39 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="7" t="e">
+      <c r="C32" s="8" t="e">
         <f t="shared" ref="C32:H32" si="17">+C17/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="7" t="e">
+      <c r="D32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <f t="shared" si="17"/>
         <v>0.10623803992679819</v>
       </c>
-      <c r="F32" s="7" t="e">
+      <c r="F32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <f>+I17/I8</f>
         <v>0.11985260349465301</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="8" t="e">
         <f t="shared" ref="J32" si="18">+J17/J8</f>
         <v>#DIV/0!</v>
       </c>
@@ -1787,39 +1802,39 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="7" t="e">
+      <c r="C33" s="8" t="e">
         <f t="shared" ref="C33:H33" si="19">+C21/C20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D33" s="7" t="e">
+      <c r="D33" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <f t="shared" si="19"/>
         <v>0.23392915827225033</v>
       </c>
-      <c r="F33" s="7" t="e">
+      <c r="F33" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G33" s="7" t="e">
+      <c r="G33" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="7" t="e">
+      <c r="H33" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <f>+I21/I20</f>
         <v>0.2457580282915702</v>
       </c>
-      <c r="J33" s="7" t="e">
+      <c r="J33" s="8" t="e">
         <f t="shared" ref="J33" si="20">+J21/J20</f>
         <v>#DIV/0!</v>
       </c>
@@ -1836,7 +1851,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1858,7 +1873,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1880,7 +1895,7 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1902,7 +1917,7 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1924,7 +1939,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1946,7 +1961,7 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1968,7 +1983,7 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1990,7 +2005,7 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2012,7 +2027,7 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2034,7 +2049,7 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2056,7 +2071,7 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2078,7 +2093,7 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2100,7 +2115,7 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2122,7 +2137,7 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2144,7 +2159,7 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2166,7 +2181,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2188,7 +2203,7 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2210,7 +2225,7 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
     </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2232,7 +2247,7 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
     </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2254,7 +2269,7 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2276,7 +2291,7 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2298,7 +2313,7 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2320,7 +2335,7 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
     </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2342,7 +2357,7 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2364,7 +2379,7 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2386,7 +2401,7 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2408,7 +2423,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2430,7 +2445,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2452,7 +2467,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -2474,7 +2489,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2496,7 +2511,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -2518,7 +2533,7 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -2540,7 +2555,7 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2562,7 +2577,7 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -2584,7 +2599,7 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -2606,7 +2621,7 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2628,7 +2643,7 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2650,7 +2665,7 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2672,7 +2687,7 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2694,7 +2709,7 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2716,7 +2731,7 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -2738,7 +2753,7 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2760,7 +2775,7 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2782,7 +2797,7 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2804,7 +2819,7 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2826,7 +2841,7 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -2848,7 +2863,7 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -2870,7 +2885,7 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2892,7 +2907,7 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2914,7 +2929,7 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
     </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2936,7 +2951,7 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -2958,7 +2973,7 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
     </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -2980,7 +2995,7 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
     </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3002,7 +3017,7 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
     </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3024,7 +3039,7 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
     </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3046,7 +3061,7 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
     </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3068,7 +3083,7 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3090,7 +3105,7 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
     </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3112,7 +3127,7 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3134,7 +3149,7 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
     </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3156,7 +3171,7 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
     </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3178,7 +3193,7 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3200,7 +3215,7 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
     </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3222,7 +3237,7 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3244,7 +3259,7 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
     </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3266,7 +3281,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
     </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3288,7 +3303,7 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
     </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3310,7 +3325,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3332,7 +3347,7 @@
       <c r="U101" s="3"/>
       <c r="V101" s="3"/>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3354,7 +3369,7 @@
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
     </row>
-    <row r="103" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3376,7 +3391,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
     </row>
-    <row r="104" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -3398,7 +3413,7 @@
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
     </row>
-    <row r="105" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3420,7 +3435,7 @@
       <c r="U105" s="3"/>
       <c r="V105" s="3"/>
     </row>
-    <row r="106" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -3442,7 +3457,7 @@
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
     </row>
-    <row r="107" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -3464,7 +3479,7 @@
       <c r="U107" s="3"/>
       <c r="V107" s="3"/>
     </row>
-    <row r="108" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -3486,7 +3501,7 @@
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
     </row>
-    <row r="109" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -3508,7 +3523,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
     </row>
-    <row r="110" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -3530,7 +3545,7 @@
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
     </row>
-    <row r="111" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -3552,7 +3567,7 @@
       <c r="U111" s="3"/>
       <c r="V111" s="3"/>
     </row>
-    <row r="112" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -3574,7 +3589,7 @@
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
     </row>
-    <row r="113" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -3596,7 +3611,7 @@
       <c r="U113" s="3"/>
       <c r="V113" s="3"/>
     </row>
-    <row r="114" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -3618,7 +3633,7 @@
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
     </row>
-    <row r="115" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -3640,7 +3655,7 @@
       <c r="U115" s="3"/>
       <c r="V115" s="3"/>
     </row>
-    <row r="116" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -3662,7 +3677,7 @@
       <c r="U116" s="3"/>
       <c r="V116" s="3"/>
     </row>
-    <row r="117" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -3684,7 +3699,7 @@
       <c r="U117" s="3"/>
       <c r="V117" s="3"/>
     </row>
-    <row r="118" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -3706,7 +3721,7 @@
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
     </row>
-    <row r="119" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -3728,7 +3743,7 @@
       <c r="U119" s="3"/>
       <c r="V119" s="3"/>
     </row>
-    <row r="120" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -3750,7 +3765,7 @@
       <c r="U120" s="3"/>
       <c r="V120" s="3"/>
     </row>
-    <row r="121" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -3772,7 +3787,7 @@
       <c r="U121" s="3"/>
       <c r="V121" s="3"/>
     </row>
-    <row r="122" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -3794,7 +3809,7 @@
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
     </row>
-    <row r="123" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -3816,7 +3831,7 @@
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
     </row>
-    <row r="124" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -3838,7 +3853,7 @@
       <c r="U124" s="3"/>
       <c r="V124" s="3"/>
     </row>
-    <row r="125" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -3860,7 +3875,7 @@
       <c r="U125" s="3"/>
       <c r="V125" s="3"/>
     </row>
-    <row r="126" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -3882,7 +3897,7 @@
       <c r="U126" s="3"/>
       <c r="V126" s="3"/>
     </row>
-    <row r="127" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -3904,7 +3919,7 @@
       <c r="U127" s="3"/>
       <c r="V127" s="3"/>
     </row>
-    <row r="128" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -3926,7 +3941,7 @@
       <c r="U128" s="3"/>
       <c r="V128" s="3"/>
     </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -3948,7 +3963,7 @@
       <c r="U129" s="3"/>
       <c r="V129" s="3"/>
     </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -3970,7 +3985,7 @@
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
     </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -3992,7 +4007,7 @@
       <c r="U131" s="3"/>
       <c r="V131" s="3"/>
     </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -4014,7 +4029,7 @@
       <c r="U132" s="3"/>
       <c r="V132" s="3"/>
     </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -4036,7 +4051,7 @@
       <c r="U133" s="3"/>
       <c r="V133" s="3"/>
     </row>
-    <row r="134" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -4058,7 +4073,7 @@
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
     </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -4080,7 +4095,7 @@
       <c r="U135" s="3"/>
       <c r="V135" s="3"/>
     </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4102,7 +4117,7 @@
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
     </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -4124,7 +4139,7 @@
       <c r="U137" s="3"/>
       <c r="V137" s="3"/>
     </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4146,7 +4161,7 @@
       <c r="U138" s="3"/>
       <c r="V138" s="3"/>
     </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4168,7 +4183,7 @@
       <c r="U139" s="3"/>
       <c r="V139" s="3"/>
     </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -4190,7 +4205,7 @@
       <c r="U140" s="3"/>
       <c r="V140" s="3"/>
     </row>
-    <row r="141" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -4212,7 +4227,7 @@
       <c r="U141" s="3"/>
       <c r="V141" s="3"/>
     </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -4234,7 +4249,7 @@
       <c r="U142" s="3"/>
       <c r="V142" s="3"/>
     </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -4256,7 +4271,7 @@
       <c r="U143" s="3"/>
       <c r="V143" s="3"/>
     </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -4278,7 +4293,7 @@
       <c r="U144" s="3"/>
       <c r="V144" s="3"/>
     </row>
-    <row r="145" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -4300,7 +4315,7 @@
       <c r="U145" s="3"/>
       <c r="V145" s="3"/>
     </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -4322,7 +4337,7 @@
       <c r="U146" s="3"/>
       <c r="V146" s="3"/>
     </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -4344,7 +4359,7 @@
       <c r="U147" s="3"/>
       <c r="V147" s="3"/>
     </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -4366,7 +4381,7 @@
       <c r="U148" s="3"/>
       <c r="V148" s="3"/>
     </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -4388,7 +4403,7 @@
       <c r="U149" s="3"/>
       <c r="V149" s="3"/>
     </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -4410,7 +4425,7 @@
       <c r="U150" s="3"/>
       <c r="V150" s="3"/>
     </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -4432,7 +4447,7 @@
       <c r="U151" s="3"/>
       <c r="V151" s="3"/>
     </row>
-    <row r="152" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -4454,7 +4469,7 @@
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
     </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -4476,7 +4491,7 @@
       <c r="U153" s="3"/>
       <c r="V153" s="3"/>
     </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -4498,7 +4513,7 @@
       <c r="U154" s="3"/>
       <c r="V154" s="3"/>
     </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -4520,7 +4535,7 @@
       <c r="U155" s="3"/>
       <c r="V155" s="3"/>
     </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -4542,7 +4557,7 @@
       <c r="U156" s="3"/>
       <c r="V156" s="3"/>
     </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -4564,7 +4579,7 @@
       <c r="U157" s="3"/>
       <c r="V157" s="3"/>
     </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -4586,7 +4601,7 @@
       <c r="U158" s="3"/>
       <c r="V158" s="3"/>
     </row>
-    <row r="159" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -4608,7 +4623,7 @@
       <c r="U159" s="3"/>
       <c r="V159" s="3"/>
     </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -4630,7 +4645,7 @@
       <c r="U160" s="3"/>
       <c r="V160" s="3"/>
     </row>
-    <row r="161" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -4652,7 +4667,7 @@
       <c r="U161" s="3"/>
       <c r="V161" s="3"/>
     </row>
-    <row r="162" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -4674,7 +4689,7 @@
       <c r="U162" s="3"/>
       <c r="V162" s="3"/>
     </row>
-    <row r="163" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -4696,7 +4711,7 @@
       <c r="U163" s="3"/>
       <c r="V163" s="3"/>
     </row>
-    <row r="164" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -4718,7 +4733,7 @@
       <c r="U164" s="3"/>
       <c r="V164" s="3"/>
     </row>
-    <row r="165" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -4740,7 +4755,7 @@
       <c r="U165" s="3"/>
       <c r="V165" s="3"/>
     </row>
-    <row r="166" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -4762,7 +4777,7 @@
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
     </row>
-    <row r="167" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -4784,7 +4799,7 @@
       <c r="U167" s="3"/>
       <c r="V167" s="3"/>
     </row>
-    <row r="168" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -4806,7 +4821,7 @@
       <c r="U168" s="3"/>
       <c r="V168" s="3"/>
     </row>
-    <row r="169" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -4828,7 +4843,7 @@
       <c r="U169" s="3"/>
       <c r="V169" s="3"/>
     </row>
-    <row r="170" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -4850,7 +4865,7 @@
       <c r="U170" s="3"/>
       <c r="V170" s="3"/>
     </row>
-    <row r="171" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -4872,7 +4887,7 @@
       <c r="U171" s="3"/>
       <c r="V171" s="3"/>
     </row>
-    <row r="172" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -4894,7 +4909,7 @@
       <c r="U172" s="3"/>
       <c r="V172" s="3"/>
     </row>
-    <row r="173" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -4916,7 +4931,7 @@
       <c r="U173" s="3"/>
       <c r="V173" s="3"/>
     </row>
-    <row r="174" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -4938,7 +4953,7 @@
       <c r="U174" s="3"/>
       <c r="V174" s="3"/>
     </row>
-    <row r="175" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -4960,7 +4975,7 @@
       <c r="U175" s="3"/>
       <c r="V175" s="3"/>
     </row>
-    <row r="176" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -4982,7 +4997,7 @@
       <c r="U176" s="3"/>
       <c r="V176" s="3"/>
     </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -5004,7 +5019,7 @@
       <c r="U177" s="3"/>
       <c r="V177" s="3"/>
     </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -5026,7 +5041,7 @@
       <c r="U178" s="3"/>
       <c r="V178" s="3"/>
     </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -5048,7 +5063,7 @@
       <c r="U179" s="3"/>
       <c r="V179" s="3"/>
     </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -5070,7 +5085,7 @@
       <c r="U180" s="3"/>
       <c r="V180" s="3"/>
     </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -5092,7 +5107,7 @@
       <c r="U181" s="3"/>
       <c r="V181" s="3"/>
     </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -5114,7 +5129,7 @@
       <c r="U182" s="3"/>
       <c r="V182" s="3"/>
     </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -5136,7 +5151,7 @@
       <c r="U183" s="3"/>
       <c r="V183" s="3"/>
     </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -5158,7 +5173,7 @@
       <c r="U184" s="3"/>
       <c r="V184" s="3"/>
     </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -5180,7 +5195,7 @@
       <c r="U185" s="3"/>
       <c r="V185" s="3"/>
     </row>
-    <row r="186" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -5202,7 +5217,7 @@
       <c r="U186" s="3"/>
       <c r="V186" s="3"/>
     </row>
-    <row r="187" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -5224,7 +5239,7 @@
       <c r="U187" s="3"/>
       <c r="V187" s="3"/>
     </row>
-    <row r="188" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -5246,7 +5261,7 @@
       <c r="U188" s="3"/>
       <c r="V188" s="3"/>
     </row>
-    <row r="189" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -5268,7 +5283,7 @@
       <c r="U189" s="3"/>
       <c r="V189" s="3"/>
     </row>
-    <row r="190" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -5290,7 +5305,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
     </row>
-    <row r="191" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -5312,7 +5327,7 @@
       <c r="U191" s="3"/>
       <c r="V191" s="3"/>
     </row>
-    <row r="192" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -5334,7 +5349,7 @@
       <c r="U192" s="3"/>
       <c r="V192" s="3"/>
     </row>
-    <row r="193" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -5356,7 +5371,7 @@
       <c r="U193" s="3"/>
       <c r="V193" s="3"/>
     </row>
-    <row r="194" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -5378,7 +5393,7 @@
       <c r="U194" s="3"/>
       <c r="V194" s="3"/>
     </row>
-    <row r="195" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -5400,7 +5415,7 @@
       <c r="U195" s="3"/>
       <c r="V195" s="3"/>
     </row>
-    <row r="196" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -5422,7 +5437,7 @@
       <c r="U196" s="3"/>
       <c r="V196" s="3"/>
     </row>
-    <row r="197" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -5444,7 +5459,7 @@
       <c r="U197" s="3"/>
       <c r="V197" s="3"/>
     </row>
-    <row r="198" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -5466,7 +5481,7 @@
       <c r="U198" s="3"/>
       <c r="V198" s="3"/>
     </row>
-    <row r="199" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>

--- a/NYT.xlsx
+++ b/NYT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC48FE0-D8B5-41CC-B813-75003BA26E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F67FB4-4F93-4CBE-B274-82C3CAB66B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{F0F54F86-B9EF-4E89-80C7-6F9BAE07501F}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{F0F54F86-B9EF-4E89-80C7-6F9BAE07501F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>Oscar Settje</author>
   </authors>
   <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{17BE5044-A823-4CEB-8EBD-4B162FB14622}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{17BE5044-A823-4CEB-8EBD-4B162FB14622}">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>NYT</t>
   </si>
@@ -184,15 +184,6 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Subscription Growth</t>
-  </si>
-  <si>
-    <t>Ad Growth</t>
-  </si>
-  <si>
-    <t>Other Growth</t>
-  </si>
-  <si>
     <t>Revenue Growth</t>
   </si>
   <si>
@@ -209,19 +200,82 @@
   </si>
   <si>
     <t xml:space="preserve">Print Subscription </t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>Digital Only Subscribers</t>
+  </si>
+  <si>
+    <t>Print Subscribers</t>
+  </si>
+  <si>
+    <t>Total Subscribers</t>
+  </si>
+  <si>
+    <t>Subscription Rev Growth</t>
+  </si>
+  <si>
+    <t>Ad  Rev Growth</t>
+  </si>
+  <si>
+    <t>Other Rev Growth</t>
+  </si>
+  <si>
+    <t>Digital Subs Growth</t>
+  </si>
+  <si>
+    <t>Print Subs Growth</t>
+  </si>
+  <si>
+    <t>Ttoal Subs Growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -291,21 +345,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -644,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4ACF83-7391-4A3C-86D5-7F69C84C063E}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -667,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2">
-        <v>52.09</v>
+        <v>69.87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -675,11 +734,11 @@
         <v>5</v>
       </c>
       <c r="H3" s="3">
-        <f>163.173722+0.780724</f>
-        <v>163.95444599999999</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
+        <f>161.568285+0.780724</f>
+        <v>162.349009</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -691,22 +750,22 @@
       </c>
       <c r="H4" s="3">
         <f>+H2*H3</f>
-        <v>8540.3870921399994</v>
+        <v>11343.32525883</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="3">
-        <f>204.62+288.325</f>
-        <v>492.94499999999999</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>10</v>
+        <f>249.339+368.013</f>
+        <v>617.35199999999998</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -716,8 +775,8 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
+      <c r="I6" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -726,23 +785,26 @@
       </c>
       <c r="H7" s="3">
         <f>+H4-H5+H6</f>
-        <v>8047.4420921399997</v>
+        <v>10725.973258829999</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{0509C328-EF98-4F9F-867C-043324BB1F42}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F24A468-4260-4D44-8423-D91A08F99504}">
-  <dimension ref="A1:V199"/>
+  <dimension ref="A1:V206"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -782,60 +844,138 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="K2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>44</v>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>282.22800000000001</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
-        <v>322.19799999999998</v>
-      </c>
-      <c r="J3" s="4"/>
+        <v>10470</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10820</v>
+      </c>
+      <c r="K3" s="3">
+        <v>11060</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11300</v>
+      </c>
+      <c r="M3" s="3">
+        <v>11760</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>45</v>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>136.34899999999999</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
-        <v>131.12899999999999</v>
-      </c>
-      <c r="J4" s="4"/>
+        <v>620</v>
+      </c>
+      <c r="J4" s="3">
+        <v>610</v>
+      </c>
+      <c r="K4" s="3">
+        <v>600</v>
+      </c>
+      <c r="L4" s="3">
+        <v>580</v>
+      </c>
+      <c r="M4" s="3">
+        <v>570</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>418.577</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>453.327</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <f>+I3+I4</f>
+        <v>11090</v>
+      </c>
+      <c r="J5" s="6">
+        <f>+J3+J4</f>
+        <v>11430</v>
+      </c>
+      <c r="K5" s="6">
+        <f>+K3+K4</f>
+        <v>11660</v>
+      </c>
+      <c r="L5" s="6">
+        <f>+L3+L4</f>
+        <v>11880</v>
+      </c>
+      <c r="M5" s="6">
+        <f>+M3+M4</f>
+        <v>12330</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -847,20 +987,13 @@
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>117.113</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>118.37</v>
-      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -877,23 +1010,25 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
-        <v>62.655000000000001</v>
+        <v>282.22800000000001</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
-        <v>68.480999999999995</v>
+        <v>322.19799999999998</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>367.44299999999998</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -905,73 +1040,46 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8:H8" si="0">+SUM(C5:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>598.34500000000003</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f>+SUM(I5:I7)</f>
-        <v>640.178</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" ref="J8" si="1">+SUM(J5:J7)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>136.34899999999999</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>131.12899999999999</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="M8" s="2">
+        <v>127.187</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>311.13499999999999</v>
+        <v>418.577</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3">
-        <v>331.839</v>
+        <v>453.327</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>494.63</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -984,37 +1092,25 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:H10" si="2">+E8-E9</f>
-        <v>287.21000000000004</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>117.113</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="3">
-        <f>+I8-I9</f>
-        <v>308.339</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" ref="J10" si="3">+J8-J9</f>
-        <v>0</v>
-      </c>
+        <v>118.37</v>
+      </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>132.291</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1027,23 +1123,25 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>62.634999999999998</v>
+        <v>62.655000000000001</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3">
-        <v>69.131</v>
+        <v>68.480999999999995</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>73.900000000000006</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1055,24 +1153,53 @@
       <c r="V11" s="3"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>57.433</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>61.03</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ref="C12:H12" si="0">+SUM(C9:C11)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>598.34500000000003</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f>+SUM(I9:I11)</f>
+        <v>640.178</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" ref="J12:M12" si="1">+SUM(J9:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="1"/>
+        <v>700.82100000000003</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1085,23 +1212,25 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3">
-        <v>81.87</v>
+        <v>311.13499999999999</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
-        <v>76.209000000000003</v>
+        <v>331.839</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>349.07499999999999</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1114,23 +1243,46 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <v>21.475000000000001</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+        <f t="shared" ref="E14:H14" si="2">+E12-E13</f>
+        <v>287.21000000000004</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="3">
-        <v>20.622</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <f>+I12-I13</f>
+        <v>308.339</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" ref="J14:M14" si="3">+J12-J13</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <f t="shared" si="3"/>
+        <v>351.74600000000004</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -1143,23 +1295,25 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>62.634999999999998</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3">
-        <v>4.62</v>
+        <v>69.131</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>79.576999999999998</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -1172,24 +1326,25 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <f>2.503-2.273</f>
-        <v>0.22999999999999998</v>
+        <v>57.433</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>61.03</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>66.989000000000004</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -1202,43 +1357,25 @@
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:H17" si="4">+C10-SUM(C11:C16)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <f t="shared" si="4"/>
-        <v>63.567000000000064</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>81.87</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3">
-        <f>+I10-SUM(I11:I16)</f>
-        <v>76.726999999999975</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="5">+J10-SUM(J11:J16)</f>
-        <v>0</v>
-      </c>
+        <v>76.209000000000003</v>
+      </c>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>76.64</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -1251,23 +1388,25 @@
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
-        <v>0.68400000000000005</v>
+        <v>21.475000000000001</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
-        <v>-1.05</v>
+        <v>20.622</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>21.341000000000001</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -1280,23 +1419,25 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3">
-        <v>5.7359999999999998</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3">
-        <v>9.3659999999999997</v>
+        <v>4.62</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <v>2.411</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -1309,43 +1450,26 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" ref="C20:H20" si="6">+C17+SUM(C18:C19)</f>
+        <v>21</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <f>2.503-2.273</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="6"/>
-        <v>69.987000000000066</v>
-      </c>
-      <c r="F20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <f>+I17+SUM(I18:I19)</f>
-        <v>85.042999999999978</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" ref="J20" si="7">+J17+SUM(J18:J19)</f>
-        <v>0</v>
-      </c>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -1358,23 +1482,52 @@
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21:H21" si="4">+C14-SUM(C15:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="E21" s="3">
-        <v>16.372</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <f t="shared" si="4"/>
+        <v>63.567000000000064</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="I21" s="3">
-        <v>20.9</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+        <f>+I14-SUM(I15:I20)</f>
+        <v>76.726999999999975</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" ref="J21:M21" si="5">+J14-SUM(J15:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <f t="shared" si="5"/>
+        <v>104.78800000000001</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1387,43 +1540,25 @@
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" ref="C22:H22" si="8">+C20-C21</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3">
-        <f t="shared" si="8"/>
-        <v>53.615000000000066</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
       <c r="I22" s="3">
-        <f>+I20-I21</f>
-        <v>64.142999999999972</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" ref="J22" si="9">+J20-J21</f>
-        <v>0</v>
-      </c>
+        <v>-1.05</v>
+      </c>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>-4.649</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -1435,17 +1570,26 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3">
+        <v>5.7359999999999998</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>9.3659999999999997</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>7.851</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -1458,43 +1602,52 @@
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="7" t="e">
-        <f t="shared" ref="C24:D24" si="10">+C22/C25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="7" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="7">
-        <f>+E22/E25</f>
-        <v>0.32579237761897856</v>
-      </c>
-      <c r="F24" s="7" t="e">
-        <f t="shared" ref="F24:J24" si="11">+F22/F25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="11"/>
-        <v>0.3901191468139325</v>
-      </c>
-      <c r="J24" s="7" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" ref="C24:H24" si="6">+C21+SUM(C22:C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <f t="shared" si="6"/>
+        <v>69.987000000000066</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <f>+I21+SUM(I22:I23)</f>
+        <v>85.042999999999978</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" ref="J24:M24" si="7">+J21+SUM(J22:J23)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="7"/>
+        <v>107.99000000000001</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -1507,23 +1660,25 @@
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3">
-        <v>164.56800000000001</v>
+        <v>16.372</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3">
-        <v>164.41900000000001</v>
+        <v>20.9</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <v>26.352</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -1535,17 +1690,53 @@
       <c r="V25" s="3"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" ref="C26:H26" si="8">+C24-C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="8"/>
+        <v>53.615000000000066</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <f>+I24-I25</f>
+        <v>64.142999999999972</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:M26" si="9">+J24-J25</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="9"/>
+        <v>81.638000000000005</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -1557,29 +1748,14 @@
       <c r="V26" s="3"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="8" t="e">
-        <f t="shared" ref="G27:H30" si="12">+G5/C5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="8">
-        <f>+I5/E5-1</f>
-        <v>8.3019372779679745E-2</v>
-      </c>
-      <c r="J27" s="8" t="e">
-        <f t="shared" ref="J27:J30" si="13">+J5/F5-1</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1595,31 +1771,52 @@
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="8">
-        <f t="shared" ref="I28:I30" si="14">+I6/E6-1</f>
-        <v>1.0733223467932707E-2</v>
-      </c>
-      <c r="J28" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C28" s="7" t="e">
+        <f t="shared" ref="C28:D28" si="10">+C26/C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="7" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="7">
+        <f>+E26/E29</f>
+        <v>0.32579237761897856</v>
+      </c>
+      <c r="F28" s="7" t="e">
+        <f t="shared" ref="F28:M28" si="11">+F26/F29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="11"/>
+        <v>0.3901191468139325</v>
+      </c>
+      <c r="J28" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L28" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="11"/>
+        <v>0.50077903595833695</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -1632,31 +1829,25 @@
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3">
+        <v>164.56800000000001</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="8">
-        <f t="shared" si="14"/>
-        <v>9.2985396217380778E-2</v>
-      </c>
-      <c r="J29" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>164.41900000000001</v>
+      </c>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="M29" s="3">
+        <v>163.02199999999999</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
@@ -1668,29 +1859,14 @@
       <c r="V29" s="3"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="8">
-        <f t="shared" si="14"/>
-        <v>6.9914514201672828E-2</v>
-      </c>
-      <c r="J30" s="8" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1705,44 +1881,41 @@
       <c r="V30" s="3"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="8" t="e">
-        <f t="shared" ref="C31:H31" si="15">+C10/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D31" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="15"/>
-        <v>0.48000735361706043</v>
-      </c>
-      <c r="F31" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f>+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="8">
-        <f>+I10/I8</f>
-        <v>0.48164572978140452</v>
+        <f>+H3/D3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="8" t="e">
+        <f>+I3/E3-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J31" s="8" t="e">
-        <f t="shared" ref="J31" si="16">+J10/J8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+        <f>+J3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="8" t="e">
+        <f>+K3/G3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="8" t="e">
+        <f>+L3/H3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="8">
+        <f>+M3/I3-1</f>
+        <v>0.12320916905444124</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
@@ -1754,44 +1927,41 @@
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="8" t="e">
-        <f t="shared" ref="C32:H32" si="17">+C17/C8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="17"/>
-        <v>0.10623803992679819</v>
-      </c>
-      <c r="F32" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f>+G4/C4-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="8">
-        <f>+I17/I8</f>
-        <v>0.11985260349465301</v>
+        <f>+H4/D4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I32" s="8" t="e">
+        <f>+I4/E4-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J32" s="8" t="e">
-        <f t="shared" ref="J32" si="18">+J17/J8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+        <f>+J4/F4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K32" s="8" t="e">
+        <f>+K4/G4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L32" s="8" t="e">
+        <f>+L4/H4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="8">
+        <f>+M4/I4-1</f>
+        <v>-8.064516129032262E-2</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
@@ -1803,44 +1973,41 @@
       <c r="V32" s="3"/>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="8" t="e">
-        <f t="shared" ref="C33:H33" si="19">+C21/C20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="19"/>
-        <v>0.23392915827225033</v>
-      </c>
-      <c r="F33" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B33" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f>+G5/C5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="8">
-        <f>+I21/I20</f>
-        <v>0.2457580282915702</v>
+        <f>+H5/D5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="8" t="e">
+        <f>+I5/E5-1</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J33" s="8" t="e">
-        <f t="shared" ref="J33" si="20">+J21/J20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+        <f>+J5/F5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K33" s="8" t="e">
+        <f>+K5/G5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L33" s="8" t="e">
+        <f>+L5/H5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="8">
+        <f>+M5/I5-1</f>
+        <v>0.11181244364292153</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -1852,18 +2019,45 @@
       <c r="V33" s="3"/>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B34" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="G34" s="8" t="e">
+        <f t="shared" ref="G34:H37" si="12">+G9/C9-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="8">
+        <f>+I9/E9-1</f>
+        <v>8.3019372779679745E-2</v>
+      </c>
+      <c r="J34" s="8" t="e">
+        <f t="shared" ref="J34:N37" si="13">+J9/F9-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K34" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L34" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="8">
+        <f t="shared" si="13"/>
+        <v>9.1110831695442762E-2</v>
+      </c>
+      <c r="N34" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
@@ -1874,18 +2068,45 @@
       <c r="V34" s="3"/>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="G35" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" ref="I35:I37" si="14">+I10/E10-1</f>
+        <v>1.0733223467932707E-2</v>
+      </c>
+      <c r="J35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="8">
+        <f t="shared" si="13"/>
+        <v>0.11760581228351774</v>
+      </c>
+      <c r="N35" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -1896,18 +2117,45 @@
       <c r="V35" s="3"/>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B36" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="G36" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" si="14"/>
+        <v>9.2985396217380778E-2</v>
+      </c>
+      <c r="J36" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L36" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M36" s="8">
+        <f t="shared" si="13"/>
+        <v>7.9131437917086656E-2</v>
+      </c>
+      <c r="N36" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -1918,18 +2166,45 @@
       <c r="V36" s="3"/>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="B37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="11" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="14"/>
+        <v>6.9914514201672828E-2</v>
+      </c>
+      <c r="J37" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K37" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L37" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M37" s="11">
+        <f t="shared" si="13"/>
+        <v>9.4728341180109421E-2</v>
+      </c>
+      <c r="N37" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -1940,18 +2215,57 @@
       <c r="V37" s="3"/>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="8" t="e">
+        <f t="shared" ref="C38:H38" si="15">+C14/C12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="15"/>
+        <v>0.48000735361706043</v>
+      </c>
+      <c r="F38" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="8" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="8">
+        <f>+I14/I12</f>
+        <v>0.48164572978140452</v>
+      </c>
+      <c r="J38" s="8" t="e">
+        <f t="shared" ref="J38:N38" si="16">+J14/J12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K38" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="8">
+        <f t="shared" si="16"/>
+        <v>0.50190562212034173</v>
+      </c>
+      <c r="N38" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -1962,18 +2276,57 @@
       <c r="V38" s="3"/>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="8" t="e">
+        <f t="shared" ref="C39:H39" si="17">+C21/C12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D39" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="17"/>
+        <v>0.10623803992679819</v>
+      </c>
+      <c r="F39" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="8" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="8">
+        <f>+I21/I12</f>
+        <v>0.11985260349465301</v>
+      </c>
+      <c r="J39" s="8" t="e">
+        <f t="shared" ref="J39:N39" si="18">+J21/J12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K39" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L39" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M39" s="8">
+        <f t="shared" si="18"/>
+        <v>0.14952177517511606</v>
+      </c>
+      <c r="N39" s="8" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
@@ -1984,18 +2337,57 @@
       <c r="V39" s="3"/>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="8" t="e">
+        <f t="shared" ref="C40:H40" si="19">+C25/C24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="19"/>
+        <v>0.23392915827225033</v>
+      </c>
+      <c r="F40" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="8">
+        <f>+I25/I24</f>
+        <v>0.2457580282915702</v>
+      </c>
+      <c r="J40" s="8" t="e">
+        <f t="shared" ref="J40:N40" si="20">+J25/J24</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" s="8">
+        <f t="shared" si="20"/>
+        <v>0.24402259468469301</v>
+      </c>
+      <c r="N40" s="8" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -5503,6 +5895,160 @@
       <c r="U199" s="3"/>
       <c r="V199" s="3"/>
     </row>
+    <row r="200" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="3"/>
+      <c r="K200" s="3"/>
+      <c r="L200" s="3"/>
+      <c r="M200" s="3"/>
+      <c r="N200" s="3"/>
+      <c r="O200" s="3"/>
+      <c r="P200" s="3"/>
+      <c r="Q200" s="3"/>
+      <c r="R200" s="3"/>
+      <c r="S200" s="3"/>
+      <c r="T200" s="3"/>
+      <c r="U200" s="3"/>
+      <c r="V200" s="3"/>
+    </row>
+    <row r="201" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
+      <c r="K201" s="3"/>
+      <c r="L201" s="3"/>
+      <c r="M201" s="3"/>
+      <c r="N201" s="3"/>
+      <c r="O201" s="3"/>
+      <c r="P201" s="3"/>
+      <c r="Q201" s="3"/>
+      <c r="R201" s="3"/>
+      <c r="S201" s="3"/>
+      <c r="T201" s="3"/>
+      <c r="U201" s="3"/>
+      <c r="V201" s="3"/>
+    </row>
+    <row r="202" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+      <c r="J202" s="3"/>
+      <c r="K202" s="3"/>
+      <c r="L202" s="3"/>
+      <c r="M202" s="3"/>
+      <c r="N202" s="3"/>
+      <c r="O202" s="3"/>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
+      <c r="R202" s="3"/>
+      <c r="S202" s="3"/>
+      <c r="T202" s="3"/>
+      <c r="U202" s="3"/>
+      <c r="V202" s="3"/>
+    </row>
+    <row r="203" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="3"/>
+      <c r="K203" s="3"/>
+      <c r="L203" s="3"/>
+      <c r="M203" s="3"/>
+      <c r="N203" s="3"/>
+      <c r="O203" s="3"/>
+      <c r="P203" s="3"/>
+      <c r="Q203" s="3"/>
+      <c r="R203" s="3"/>
+      <c r="S203" s="3"/>
+      <c r="T203" s="3"/>
+      <c r="U203" s="3"/>
+      <c r="V203" s="3"/>
+    </row>
+    <row r="204" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="3"/>
+      <c r="Q204" s="3"/>
+      <c r="R204" s="3"/>
+      <c r="S204" s="3"/>
+      <c r="T204" s="3"/>
+      <c r="U204" s="3"/>
+      <c r="V204" s="3"/>
+    </row>
+    <row r="205" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="3"/>
+      <c r="K205" s="3"/>
+      <c r="L205" s="3"/>
+      <c r="M205" s="3"/>
+      <c r="N205" s="3"/>
+      <c r="O205" s="3"/>
+      <c r="P205" s="3"/>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
+      <c r="S205" s="3"/>
+      <c r="T205" s="3"/>
+      <c r="U205" s="3"/>
+      <c r="V205" s="3"/>
+    </row>
+    <row r="206" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="3"/>
+      <c r="K206" s="3"/>
+      <c r="L206" s="3"/>
+      <c r="M206" s="3"/>
+      <c r="N206" s="3"/>
+      <c r="O206" s="3"/>
+      <c r="P206" s="3"/>
+      <c r="Q206" s="3"/>
+      <c r="R206" s="3"/>
+      <c r="S206" s="3"/>
+      <c r="T206" s="3"/>
+      <c r="U206" s="3"/>
+      <c r="V206" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{5649D24E-83E0-4D00-976A-B7A06201555C}"/>
